--- a/graphdata/dataFigueroa.xlsx
+++ b/graphdata/dataFigueroa.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/ASIES/codes/networks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_intro/graphdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{181835F7-5FEC-AF48-B212-1CCBE0025675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506FF0D-2532-D44F-BA1A-10BACA8F80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="2" r:id="rId1"/>
+    <sheet name="Relatioships" sheetId="2" r:id="rId1"/>
+    <sheet name="Attributes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Romero</t>
   </si>
@@ -146,18 +136,26 @@
   <si>
     <t>Multinacional</t>
   </si>
+  <si>
+    <t>node</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -182,16 +180,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -604,20 +615,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL39" sqref="AL39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="39" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,11 +740,8 @@
       <c r="AL1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -848,11 +856,8 @@
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -967,11 +972,8 @@
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1086,11 +1088,8 @@
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1205,11 +1204,8 @@
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1324,11 +1320,8 @@
       <c r="AL6">
         <v>0</v>
       </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1443,11 +1436,8 @@
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1562,11 +1552,8 @@
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1681,11 +1668,8 @@
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1800,11 +1784,8 @@
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1919,11 +1900,8 @@
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2038,11 +2016,8 @@
       <c r="AL12">
         <v>0</v>
       </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2157,11 +2132,8 @@
       <c r="AL13">
         <v>0</v>
       </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2276,11 +2248,8 @@
       <c r="AL14">
         <v>0</v>
       </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2395,11 +2364,8 @@
       <c r="AL15">
         <v>0</v>
       </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2514,11 +2480,8 @@
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2633,11 +2596,8 @@
       <c r="AL17">
         <v>0</v>
       </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2752,11 +2712,8 @@
       <c r="AL18">
         <v>0</v>
       </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2871,11 +2828,8 @@
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2990,11 +2944,8 @@
       <c r="AL20">
         <v>0</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3109,11 +3060,8 @@
       <c r="AL21">
         <v>0</v>
       </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3228,11 +3176,8 @@
       <c r="AL22">
         <v>0</v>
       </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3347,11 +3292,8 @@
       <c r="AL23">
         <v>0</v>
       </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3466,11 +3408,8 @@
       <c r="AL24">
         <v>0</v>
       </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3585,11 +3524,8 @@
       <c r="AL25">
         <v>0</v>
       </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3704,11 +3640,8 @@
       <c r="AL26">
         <v>0</v>
       </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3823,11 +3756,8 @@
       <c r="AL27">
         <v>0</v>
       </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3942,11 +3872,8 @@
       <c r="AL28">
         <v>0</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4061,11 +3988,8 @@
       <c r="AL29">
         <v>0</v>
       </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4180,11 +4104,8 @@
       <c r="AL30">
         <v>0</v>
       </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4299,11 +4220,8 @@
       <c r="AL31">
         <v>0</v>
       </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4418,11 +4336,8 @@
       <c r="AL32">
         <v>0</v>
       </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4537,11 +4452,8 @@
       <c r="AL33">
         <v>0</v>
       </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4656,11 +4568,8 @@
       <c r="AL34">
         <v>0</v>
       </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4775,11 +4684,8 @@
       <c r="AL35">
         <v>0</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4894,11 +4800,8 @@
       <c r="AL36">
         <v>0</v>
       </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -5013,11 +4916,8 @@
       <c r="AL37">
         <v>0</v>
       </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -5132,18 +5032,343 @@
       <c r="AL38">
         <v>1</v>
       </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:AM38">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B2:AL38">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A127C71-FBE6-484D-A7E2-80B4DEB5A469}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="67" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B38">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphdata/dataFigueroa.xlsx
+++ b/graphdata/dataFigueroa.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_intro/graphdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3506FF0D-2532-D44F-BA1A-10BACA8F80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02340BA-4A47-254C-AA93-C1716428CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatioships" sheetId="2" r:id="rId1"/>
+    <sheet name="Relationships" sheetId="2" r:id="rId1"/>
     <sheet name="Attributes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>

--- a/graphdata/dataFigueroa.xlsx
+++ b/graphdata/dataFigueroa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_intro/graphdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02340BA-4A47-254C-AA93-C1716428CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D357961-76A9-D648-A3EC-8132C1A328ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5041,6 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
